--- a/data/extracted_data/raw_round2/Navarro_2011_Fig_2.xlsx
+++ b/data/extracted_data/raw_round2/Navarro_2011_Fig_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9184965D-44D7-1842-A8B7-D73B4ECBA447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{9184965D-44D7-1842-A8B7-D73B4ECBA447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC1CAB4C-A461-714E-9269-557A220D157D}"/>
   <bookViews>
-    <workbookView xWindow="18380" yWindow="6040" windowWidth="28040" windowHeight="17440" xr2:uid="{9D43D144-A132-C34D-B51F-CE33627F788B}"/>
+    <workbookView xWindow="6320" yWindow="1720" windowWidth="28800" windowHeight="16280" xr2:uid="{9D43D144-A132-C34D-B51F-CE33627F788B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>treatment</t>
+    <t>day</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>toxticity</t>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -104,9 +98,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -144,7 +138,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -250,7 +244,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,7 +386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -400,91 +394,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53F3F5B-BD6A-F34A-A042-0C04CD22C849}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.4347826086959596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>5.4347826086959596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
         <v>114.13043478260801</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="B4">
         <v>619.56521739130403</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>8.9555555555555593</v>
       </c>
-      <c r="C5">
+      <c r="B5">
         <v>1625.0440917107501</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>1295.72310405643</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <v>339.37389770723098</v>
       </c>
     </row>
